--- a/bank statement generator/bank_statements/statement_5.xlsx
+++ b/bank statement generator/bank_statements/statement_5.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 30.11.2024</t>
+          <t>KONTOSTAND AM 12.10.2023</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,130 +759,146 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>03.12.</t>
+          <t>13.10.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>04.12.</t>
+          <t>14.10.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>BEITRAG Allianz SE K-77055030</t>
+          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>52,83-</t>
+          <t>24,69-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>06.12.</t>
+          <t>15.10.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>07.12.</t>
+          <t>16.10.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
+          <t>RECHNUNG VODAFONE GMBH 48255531</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>26,29-</t>
+          <t>39,00-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>10.12.</t>
+          <t>19.10.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>11.12.</t>
+          <t>20.10.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>ABSCHLAG STROM Stadtwerke Rosenheim 78173155</t>
+          <t>KARTENZ./19.10 EDEKA RO</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>86,76-</t>
+          <t>118,14-</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>13.12.</t>
+          <t>21.10.</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>14.12.</t>
+          <t>22.10.</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>PAYPAL ULQMPC</t>
+          <t>PAYPAL PFTUSH</t>
         </is>
       </c>
       <c r="E9" s="17" t="inlineStr">
         <is>
-          <t>48,26-</t>
+          <t>37,22-</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>17.12.</t>
+          <t>23.10.</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>18.12.</t>
+          <t>24.10.</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>KARTENZAHLUNG JET TANKSTELLE</t>
+          <t>ABSCHLAG STROM Stadtwerke Rosenheim 84702767</t>
         </is>
       </c>
       <c r="E10" s="17" t="inlineStr">
         <is>
-          <t>49,90-</t>
+          <t>85,81-</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="8" t="n"/>
-      <c r="C11" s="8" t="n"/>
-      <c r="D11" s="8" t="n"/>
-      <c r="E11" s="12" t="n"/>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>27.10.</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>28.10.</t>
+        </is>
+      </c>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>BEITRAG Allianz SE K-35506483</t>
+        </is>
+      </c>
+      <c r="E11" s="17" t="inlineStr">
+        <is>
+          <t>54,08-</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="27.75" customHeight="1">
       <c r="B12" s="8" t="n"/>
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 19.12.2024</t>
+          <t>KONTOSTAND AM 31.10.2023</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>264,04-</t>
+          <t>358,94-</t>
         </is>
       </c>
     </row>
@@ -890,7 +906,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 24.12.2024</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 09.11.2023</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
